--- a/sweepresults/sweepresults.xlsx
+++ b/sweepresults/sweepresults.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Stellenbosch\PhD\phd\sweepresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{279A203E-F6C3-4DBB-A9A8-00DF52911ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2463D1-0E77-44B0-BEF3-C27104DC8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4344" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="2925" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N samples" sheetId="3" r:id="rId1"/>
-    <sheet name="signal 80% noise 80%" sheetId="4" r:id="rId2"/>
-    <sheet name="signal 100 noise 3000" sheetId="5" r:id="rId3"/>
+    <sheet name="Total Annotations" sheetId="6" r:id="rId2"/>
+    <sheet name="signal 80% noise 80%" sheetId="4" r:id="rId3"/>
+    <sheet name="signal 20% noise 20%" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Bm_Ant_A</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Noise</t>
+  </si>
+  <si>
+    <t>Bp_20Hz</t>
+  </si>
+  <si>
+    <t>Unidentified_calls</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -441,18 +453,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F39579-4C48-4DEA-8806-FBCE5F03FB1F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2457</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>775</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>203</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>396</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +507,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>23245</v>
+        <v>11107</v>
       </c>
     </row>
   </sheetData>
@@ -501,11 +516,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87646D71-2C00-444B-B2D2-1FEB0161AB27}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946195ED-01DB-4E6D-AE48-D80DDEEDBA33}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75.288526816021701</v>
+        <v>75.124113475177296</v>
       </c>
       <c r="C2">
-        <v>88.200250836120404</v>
+        <v>91.2640252454418</v>
       </c>
       <c r="D2">
-        <v>0.6875</v>
+        <v>0.77857142857142903</v>
       </c>
       <c r="E2">
-        <v>0.32500000000000001</v>
+        <v>0.35714285714285698</v>
       </c>
       <c r="F2">
-        <v>0.50803223173992296</v>
+        <v>0.72759874215097198</v>
       </c>
       <c r="G2">
-        <v>0.62728381753344697</v>
+        <v>0.68776232535937998</v>
       </c>
       <c r="H2">
         <v>1914</v>
@@ -596,23 +693,23 @@
       </c>
       <c r="K2" t="str">
         <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
-        <v>75.3 ± 0.5</v>
+        <v>75.1 ± 0.7</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
-        <v>88.2 ± 0.6</v>
+        <v>91.3 ± 0.7</v>
       </c>
       <c r="M2" t="str">
         <f>TEXT(D2, "0.00")</f>
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
       <c r="N2" t="str">
         <f>TEXT(E2, "0.00")</f>
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="O2">
         <f>FLOOR('N samples'!B1*0.8, 1)</f>
-        <v>1965</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -620,22 +717,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>78.279569892473106</v>
+        <v>80.561797752808999</v>
       </c>
       <c r="C3">
-        <v>90.018812709030101</v>
+        <v>92.529803646563806</v>
       </c>
       <c r="D3">
-        <v>0.6875</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="E3">
-        <v>0.77500000000000002</v>
+        <v>0.48571428571428599</v>
       </c>
       <c r="F3">
-        <v>2.24780053337303</v>
+        <v>1.8632723541320599</v>
       </c>
       <c r="G3">
-        <v>1.4460727252029999</v>
+        <v>0.95205231803330503</v>
       </c>
       <c r="H3">
         <v>518</v>
@@ -646,23 +743,23 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:L6" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
-        <v>78.3 ± 2.2</v>
+        <v>80.6 ± 1.9</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>90.0 ± 1.4</v>
+        <v>92.5 ± 1.0</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:N6" si="1">TEXT(D3, "0.00")</f>
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="O3">
         <f>FLOOR('N samples'!B2*0.8, 1)</f>
-        <v>620</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -670,22 +767,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>86.585365853658502</v>
+        <v>91.5625</v>
       </c>
       <c r="C4">
-        <v>93.952062430323295</v>
+        <v>98.241584852734903</v>
       </c>
       <c r="D4">
-        <v>0.26250000000000001</v>
+        <v>0.29285714285714298</v>
       </c>
       <c r="E4">
-        <v>0.55000000000000004</v>
+        <v>0.48571428571428599</v>
       </c>
       <c r="F4">
-        <v>5.2688948767543398</v>
+        <v>9.3280072228746604</v>
       </c>
       <c r="G4">
-        <v>0.598165441230331</v>
+        <v>0.213827504750911</v>
       </c>
       <c r="H4">
         <v>179</v>
@@ -696,23 +793,23 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>86.6 ± 5.3</v>
+        <v>91.6 ± 9.3</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>94.0 ± 0.6</v>
+        <v>98.2 ± 0.2</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="O4">
         <f>FLOOR('N samples'!B3*0.8, 1)</f>
-        <v>162</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -720,22 +817,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.573839662447298</v>
+        <v>75.8888888888889</v>
       </c>
       <c r="C5">
-        <v>92.056132542037602</v>
+        <v>91.731913560914506</v>
       </c>
       <c r="D5">
-        <v>0.6875</v>
+        <v>0.41428571428571398</v>
       </c>
       <c r="E5">
-        <v>0.77500000000000002</v>
+        <v>0.871428571428571</v>
       </c>
       <c r="F5">
-        <v>3.91291919641181</v>
+        <v>3.80220858494864</v>
       </c>
       <c r="G5">
-        <v>1.9507705923302501</v>
+        <v>1.22938114340909</v>
       </c>
       <c r="H5">
         <v>288</v>
@@ -746,23 +843,23 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>72.6 ± 3.9</v>
+        <v>75.9 ± 3.8</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>92.1 ± 2.0</v>
+        <v>91.7 ± 1.2</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>0.69</v>
+        <v>0.41</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="O5">
         <f>FLOOR('N samples'!B4*0.8, 1)</f>
-        <v>316</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -770,22 +867,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97.9166666666667</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>98.709500274574395</v>
+        <v>97.675425038639901</v>
       </c>
       <c r="D6">
-        <v>0.26250000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>8.5898033867035206</v>
+        <v>16.583123951777001</v>
       </c>
       <c r="G6">
-        <v>0.112674265125071</v>
+        <v>4.2158212377094599E-2</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -796,15 +893,15 @@
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>97.9 ± 8.6</v>
+        <v>70.0 ± 16.6</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>98.7 ± 0.1</v>
+        <v>97.7 ± 0.0</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -812,7 +909,7 @@
       </c>
       <c r="O6" s="3">
         <f>FLOOR('N samples'!B5*0.8, 1)</f>
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -829,12 +926,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE192C1E-9F37-4103-95EC-3836F0FBFBA6}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63.042002545608803</v>
+        <v>73.427947598253297</v>
       </c>
       <c r="C2">
-        <v>85.6630019120459</v>
+        <v>88.413406887328705</v>
       </c>
       <c r="D2">
-        <v>0.26250000000000001</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="E2">
-        <v>0.77500000000000002</v>
+        <v>0.61428571428571399</v>
       </c>
       <c r="F2">
-        <v>2.9091586969878298</v>
+        <v>0.71898406296404904</v>
       </c>
       <c r="G2">
-        <v>1.51937604492468</v>
+        <v>2.3349362402710701</v>
       </c>
       <c r="H2">
         <v>1914</v>
@@ -921,19 +1018,19 @@
       </c>
       <c r="K2" t="str">
         <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
-        <v>63.0 ± 2.9</v>
+        <v>73.4 ± 0.7</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
-        <v>85.7 ± 1.5</v>
+        <v>88.4 ± 2.3</v>
       </c>
       <c r="M2" t="str">
         <f>TEXT(D2, "0.00")</f>
-        <v>0.26</v>
+        <v>0.66</v>
       </c>
       <c r="N2" t="str">
         <f>TEXT(E2, "0.00")</f>
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -941,22 +1038,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61.422222222222203</v>
+        <v>69.368258859784305</v>
       </c>
       <c r="C3">
-        <v>92.188575525812595</v>
+        <v>93.199765964560299</v>
       </c>
       <c r="D3">
-        <v>0.47499999999999998</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="E3">
-        <v>0.77500000000000002</v>
+        <v>0.871428571428571</v>
       </c>
       <c r="F3">
-        <v>4.3190394196993003</v>
+        <v>2.1560089352846199</v>
       </c>
       <c r="G3">
-        <v>1.48877244749683</v>
+        <v>1.92855765198316</v>
       </c>
       <c r="H3">
         <v>518</v>
@@ -967,19 +1064,19 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:L5" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
-        <v>61.4 ± 4.3</v>
+        <v>69.4 ± 2.2</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>92.2 ± 1.5</v>
+        <v>93.2 ± 1.9</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:N5" si="1">TEXT(D3, "0.00")</f>
-        <v>0.48</v>
+        <v>0.66</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -987,22 +1084,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75.533980582524293</v>
+        <v>75.062893081761004</v>
       </c>
       <c r="C4">
-        <v>96.641252390057403</v>
+        <v>96.975091942494203</v>
       </c>
       <c r="D4">
-        <v>0.47499999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <v>0.55000000000000004</v>
+        <v>0.48571428571428599</v>
       </c>
       <c r="F4">
-        <v>3.4390728648655502</v>
+        <v>3.7441197650658999</v>
       </c>
       <c r="G4">
-        <v>0.51099180449090997</v>
+        <v>0.37606444718294502</v>
       </c>
       <c r="H4">
         <v>179</v>
@@ -1013,19 +1110,19 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>75.5 ± 3.4</v>
+        <v>75.1 ± 3.7</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>96.6 ± 0.5</v>
+        <v>97.0 ± 0.4</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1033,22 +1130,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63.902027027027003</v>
+        <v>66.570743405275806</v>
       </c>
       <c r="C5">
-        <v>92.662256354605802</v>
+        <v>92.015433708692598</v>
       </c>
       <c r="D5">
-        <v>0.47499999999999998</v>
+        <v>0.53571428571428603</v>
       </c>
       <c r="E5">
-        <v>0.77500000000000002</v>
+        <v>0.871428571428571</v>
       </c>
       <c r="F5">
-        <v>3.6669025368498298</v>
+        <v>3.5620996887535399</v>
       </c>
       <c r="G5">
-        <v>1.6217711363859499</v>
+        <v>2.0215311764720201</v>
       </c>
       <c r="H5">
         <v>288</v>
@@ -1059,19 +1156,19 @@
       </c>
       <c r="K5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63.9 ± 3.7</v>
+        <v>66.6 ± 3.6</v>
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>92.7 ± 1.6</v>
+        <v>92.0 ± 2.0</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="N5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">

--- a/sweepresults/sweepresults.xlsx
+++ b/sweepresults/sweepresults.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Stellenbosch\PhD\phd\sweepresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2463D1-0E77-44B0-BEF3-C27104DC8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D2FE02-FAF7-4F12-AFEB-ACB1190E399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="2925" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N samples" sheetId="3" r:id="rId1"/>
     <sheet name="Total Annotations" sheetId="6" r:id="rId2"/>
     <sheet name="signal 80% noise 80%" sheetId="4" r:id="rId3"/>
     <sheet name="signal 20% noise 20%" sheetId="5" r:id="rId4"/>
+    <sheet name="signal 80% noise 80% chi2" sheetId="7" r:id="rId5"/>
+    <sheet name="signal 20% noise 20% chi2" sheetId="8" r:id="rId6"/>
+    <sheet name="signal 5% noise 5% chi2" sheetId="9" r:id="rId7"/>
+    <sheet name="signal 5% noise 5% chi2 5%disc" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
   <si>
     <t>Bm_Ant_A</t>
   </si>
@@ -114,6 +118,12 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Bp</t>
+  </si>
+  <si>
+    <t>Multiple</t>
   </si>
 </sst>
 </file>
@@ -451,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F39579-4C48-4DEA-8806-FBCE5F03FB1F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1267</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>406</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,23 +501,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>199</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>11107</v>
+      <c r="B7">
+        <v>25638</v>
       </c>
     </row>
   </sheetData>
@@ -517,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87646D71-2C00-444B-B2D2-1FEB0161AB27}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +610,12 @@
         <v>130</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>(SUM('N samples'!B1:B5)+'N samples'!B6*2)/SUM(B2:B7)</f>
+        <v>0.84492798038614769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -602,7 +626,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,22 +691,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75.124113475177296</v>
+        <v>82.178217821782198</v>
       </c>
       <c r="C2">
-        <v>91.2640252454418</v>
+        <v>88.609303215926502</v>
       </c>
       <c r="D2">
-        <v>0.77857142857142903</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="E2">
-        <v>0.35714285714285698</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="F2">
-        <v>0.72759874215097198</v>
+        <v>1.5288758840791099</v>
       </c>
       <c r="G2">
-        <v>0.68776232535937998</v>
+        <v>1.18405227166181</v>
       </c>
       <c r="H2">
         <v>1914</v>
@@ -693,23 +717,23 @@
       </c>
       <c r="K2" t="str">
         <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
-        <v>75.1 ± 0.7</v>
+        <v>82.2 ± 1.5</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
-        <v>91.3 ± 0.7</v>
+        <v>88.6 ± 1.2</v>
       </c>
       <c r="M2" t="str">
         <f>TEXT(D2, "0.00")</f>
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="N2" t="str">
         <f>TEXT(E2, "0.00")</f>
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="O2">
         <f>FLOOR('N samples'!B1*0.8, 1)</f>
-        <v>1013</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -717,22 +741,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80.561797752808999</v>
+        <v>83.263157894736906</v>
       </c>
       <c r="C3">
-        <v>92.529803646563806</v>
+        <v>92.278905053598805</v>
       </c>
       <c r="D3">
-        <v>0.65714285714285703</v>
+        <v>0.53571428571428603</v>
       </c>
       <c r="E3">
-        <v>0.48571428571428599</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="F3">
-        <v>1.8632723541320599</v>
+        <v>6.2132019214204997</v>
       </c>
       <c r="G3">
-        <v>0.95205231803330503</v>
+        <v>1.0736572586468001</v>
       </c>
       <c r="H3">
         <v>518</v>
@@ -743,23 +767,23 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:L6" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
-        <v>80.6 ± 1.9</v>
+        <v>83.3 ± 6.2</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>92.5 ± 1.0</v>
+        <v>92.3 ± 1.1</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:N6" si="1">TEXT(D3, "0.00")</f>
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="1"/>
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="O3">
         <f>FLOOR('N samples'!B2*0.8, 1)</f>
-        <v>324</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -767,22 +791,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>91.5625</v>
+        <v>92.5</v>
       </c>
       <c r="C4">
-        <v>98.241584852734903</v>
+        <v>98.172856049004594</v>
       </c>
       <c r="D4">
-        <v>0.29285714285714298</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <v>0.48571428571428599</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="F4">
-        <v>9.3280072228746604</v>
+        <v>10.5811094193005</v>
       </c>
       <c r="G4">
-        <v>0.213827504750911</v>
+        <v>7.3517857464394903E-2</v>
       </c>
       <c r="H4">
         <v>179</v>
@@ -793,23 +817,23 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>91.6 ± 9.3</v>
+        <v>92.5 ± 10.6</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>98.2 ± 0.2</v>
+        <v>98.2 ± 0.1</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>0.29</v>
+        <v>0.05</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="O4">
         <f>FLOOR('N samples'!B3*0.8, 1)</f>
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -817,22 +841,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75.8888888888889</v>
+        <v>74.090909090909093</v>
       </c>
       <c r="C5">
-        <v>91.731913560914506</v>
+        <v>90.348044492285595</v>
       </c>
       <c r="D5">
-        <v>0.41428571428571398</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="E5">
-        <v>0.871428571428571</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="F5">
-        <v>3.80220858494864</v>
+        <v>6.5695404208117303</v>
       </c>
       <c r="G5">
-        <v>1.22938114340909</v>
+        <v>2.0390668969487402</v>
       </c>
       <c r="H5">
         <v>288</v>
@@ -843,73 +867,73 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>75.9 ± 3.8</v>
+        <v>74.1 ± 6.6</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>91.7 ± 1.2</v>
+        <v>90.3 ± 2.0</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O5">
         <f>FLOOR('N samples'!B4*0.8, 1)</f>
-        <v>159</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <v>97.675425038639901</v>
+        <v>98.966956830698194</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
+        <v>0.17142857142857101</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="F6">
-        <v>16.583123951777001</v>
+        <v>14.5859521458149</v>
       </c>
       <c r="G6">
-        <v>4.2158212377094599E-2</v>
+        <v>5.2782215373902298E-2</v>
       </c>
       <c r="H6">
         <v>42</v>
       </c>
       <c r="J6" s="3" t="str">
         <f>A6</f>
-        <v>Bp_20Plus</v>
+        <v>Bp</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.0 ± 16.6</v>
+        <v>96.0 ± 14.6</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>97.7 ± 0.0</v>
+        <v>99.0 ± 0.1</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1.00</v>
+        <v>0.57</v>
       </c>
       <c r="O6" s="3">
         <f>FLOOR('N samples'!B5*0.8, 1)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -928,6 +952,1243 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE192C1E-9F37-4103-95EC-3836F0FBFBA6}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>77.014863748967798</v>
+      </c>
+      <c r="C2">
+        <v>88.238010912223601</v>
+      </c>
+      <c r="D2">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="E2">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F2">
+        <v>7.1181740363458097</v>
+      </c>
+      <c r="G2">
+        <v>2.8492070391781898</v>
+      </c>
+      <c r="H2">
+        <v>1914</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2</f>
+        <v>Bm_Ant_A</v>
+      </c>
+      <c r="K2" t="str">
+        <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
+        <v>77.0 ± 7.1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
+        <v>88.2 ± 2.8</v>
+      </c>
+      <c r="M2" t="str">
+        <f>TEXT(D2, "0.00")</f>
+        <v>0.54</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(E2, "0.00")</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>67.598944591028996</v>
+      </c>
+      <c r="C3">
+        <v>94.113621135254107</v>
+      </c>
+      <c r="D3">
+        <v>0.41428571428571398</v>
+      </c>
+      <c r="E3">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F3">
+        <v>10.609772306619</v>
+      </c>
+      <c r="G3">
+        <v>0.56834492904107203</v>
+      </c>
+      <c r="H3">
+        <v>518</v>
+      </c>
+      <c r="J3" t="str">
+        <f>A3</f>
+        <v>Bm_Ant_B</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:L6" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
+        <v>67.6 ± 10.6</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>94.1 ± 0.6</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:N6" si="1">TEXT(D3, "0.00")</f>
+        <v>0.41</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75.821917808219197</v>
+      </c>
+      <c r="C4">
+        <v>99.238776682301193</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="E4">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F4">
+        <v>10.536375081112</v>
+      </c>
+      <c r="G4">
+        <v>1.3332428703293301E-2</v>
+      </c>
+      <c r="H4">
+        <v>179</v>
+      </c>
+      <c r="J4" t="str">
+        <f>A4</f>
+        <v>Bm_Ant_Z</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>75.8 ± 10.5</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>99.2 ± 0.0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>67.767175572519093</v>
+      </c>
+      <c r="C5">
+        <v>90.254541376990403</v>
+      </c>
+      <c r="D5">
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="E5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F5">
+        <v>4.95169251715543</v>
+      </c>
+      <c r="G5">
+        <v>0.68218035545449296</v>
+      </c>
+      <c r="H5">
+        <v>288</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>A5</f>
+        <v>Bm_D</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>67.8 ± 5.0</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>90.3 ± 0.7</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>89.875</v>
+      </c>
+      <c r="C6">
+        <v>93.310240696331803</v>
+      </c>
+      <c r="D6">
+        <v>0.29285714285714298</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1.33226839810821E-3</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>A6</f>
+        <v>Bp</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>89.9 ± 4.0</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>93.3 ± 0.0</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.29</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1.00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>24488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5FB794-002A-425E-A991-C91C364AFC8C}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>80.775577557755796</v>
+      </c>
+      <c r="C2">
+        <v>89.888973966309393</v>
+      </c>
+      <c r="D2">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="E2">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="F2">
+        <v>1.5210189599732999</v>
+      </c>
+      <c r="G2">
+        <v>1.6217084049349699</v>
+      </c>
+      <c r="H2">
+        <v>1914</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2</f>
+        <v>Bm_Ant_A</v>
+      </c>
+      <c r="K2" t="str">
+        <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
+        <v>80.8 ± 1.5</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
+        <v>89.9 ± 1.6</v>
+      </c>
+      <c r="M2" t="str">
+        <f>TEXT(D2, "0.00")</f>
+        <v>0.66</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(E2, "0.00")</f>
+        <v>0.29</v>
+      </c>
+      <c r="O2">
+        <f>FLOOR('N samples'!B1*0.8, 1)</f>
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>84.473684210526301</v>
+      </c>
+      <c r="C3">
+        <v>91.607963246554405</v>
+      </c>
+      <c r="D3">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="E3">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="F3">
+        <v>6.0870872820213</v>
+      </c>
+      <c r="G3">
+        <v>2.9536665052928899</v>
+      </c>
+      <c r="H3">
+        <v>518</v>
+      </c>
+      <c r="J3" t="str">
+        <f>A3</f>
+        <v>Bm_Ant_B</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:L6" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
+        <v>84.5 ± 6.1</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>91.6 ± 3.0</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:N6" si="1">TEXT(D3, "0.00")</f>
+        <v>0.54</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="O3">
+        <f>FLOOR('N samples'!B2*0.8, 1)</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>96.3888888888889</v>
+      </c>
+      <c r="C4">
+        <v>98.037901990811605</v>
+      </c>
+      <c r="D4">
+        <v>0.41428571428571398</v>
+      </c>
+      <c r="E4">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="F4">
+        <v>10.463782334354001</v>
+      </c>
+      <c r="G4">
+        <v>0.52062454725860996</v>
+      </c>
+      <c r="H4">
+        <v>179</v>
+      </c>
+      <c r="J4" t="str">
+        <f>A4</f>
+        <v>Bm_Ant_Z</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>96.4 ± 10.5</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>98.0 ± 0.5</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="O4">
+        <f>FLOOR('N samples'!B3*0.8, 1)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>73.636363636363598</v>
+      </c>
+      <c r="C5">
+        <v>90.679942590599197</v>
+      </c>
+      <c r="D5">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="E5">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F5">
+        <v>5.2508252882313204</v>
+      </c>
+      <c r="G5">
+        <v>4.0196881969112397</v>
+      </c>
+      <c r="H5">
+        <v>288</v>
+      </c>
+      <c r="J5" t="str">
+        <f>A5</f>
+        <v>Bm_D</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>73.6 ± 5.3</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>90.7 ± 4.0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="O5">
+        <f>FLOOR('N samples'!B4*0.8, 1)</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>97.5</v>
+      </c>
+      <c r="C6">
+        <v>97.9827678095576</v>
+      </c>
+      <c r="D6">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="E6">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="F6">
+        <v>9.2059763197611097</v>
+      </c>
+      <c r="G6">
+        <v>0.27206059178863901</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>A6</f>
+        <v>Bp</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>97.5 ± 9.2</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>98.0 ± 0.3</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.57</v>
+      </c>
+      <c r="O6" s="3">
+        <f>FLOOR('N samples'!B5*0.8, 1)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>24488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209AC7B-05D2-4966-B325-4B182BAB604B}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>80.276630883567293</v>
+      </c>
+      <c r="C2">
+        <v>89.049487891260696</v>
+      </c>
+      <c r="D2">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="E2">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="F2">
+        <v>4.8772103380264102</v>
+      </c>
+      <c r="G2">
+        <v>8.7890043372785094</v>
+      </c>
+      <c r="H2">
+        <v>1914</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2</f>
+        <v>Bm_Ant_A</v>
+      </c>
+      <c r="K2" t="str">
+        <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
+        <v>80.3 ± 4.9</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
+        <v>89.0 ± 8.8</v>
+      </c>
+      <c r="M2" t="str">
+        <f>TEXT(D2, "0.00")</f>
+        <v>0.66</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(E2, "0.00")</f>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>79.089709762533005</v>
+      </c>
+      <c r="C3">
+        <v>92.080262276251602</v>
+      </c>
+      <c r="D3">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="E3">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="F3">
+        <v>15.2163156032736</v>
+      </c>
+      <c r="G3">
+        <v>4.2546843572912998</v>
+      </c>
+      <c r="H3">
+        <v>518</v>
+      </c>
+      <c r="J3" t="str">
+        <f>A3</f>
+        <v>Bm_Ant_B</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:L6" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
+        <v>79.1 ± 15.2</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>92.1 ± 4.3</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:N7" si="1">TEXT(D3, "0.00")</f>
+        <v>0.54</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>91.780821917808197</v>
+      </c>
+      <c r="C4">
+        <v>97.897003924571607</v>
+      </c>
+      <c r="D4">
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="E4">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="F4">
+        <v>12.4414560737983</v>
+      </c>
+      <c r="G4">
+        <v>0.37556294487710501</v>
+      </c>
+      <c r="H4">
+        <v>179</v>
+      </c>
+      <c r="J4" t="str">
+        <f>A4</f>
+        <v>Bm_Ant_Z</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>91.8 ± 12.4</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>97.9 ± 0.4</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>71.393129770992402</v>
+      </c>
+      <c r="C5">
+        <v>90.648351648351706</v>
+      </c>
+      <c r="D5">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="E5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F5">
+        <v>12.8643507987425</v>
+      </c>
+      <c r="G5">
+        <v>4.66147045223794</v>
+      </c>
+      <c r="H5">
+        <v>288</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>A5</f>
+        <v>Bm_D</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>71.4 ± 12.9</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>90.6 ± 4.7</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>92.5</v>
+      </c>
+      <c r="C6">
+        <v>97.877919886313194</v>
+      </c>
+      <c r="D6">
+        <v>0.41428571428571398</v>
+      </c>
+      <c r="E6">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F6">
+        <v>13.7812145691155</v>
+      </c>
+      <c r="G6">
+        <v>0.21123653647007501</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>A6</f>
+        <v>Bp</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>92.5 ± 13.8</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>97.9 ± 0.2</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>24488</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B23328-E0E0-4EAB-B875-2FC7F8B677ED}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>73.476356050069498</v>
+      </c>
+      <c r="C2">
+        <v>89.582984039980602</v>
+      </c>
+      <c r="D2">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="E2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="F2">
+        <v>6.05810454723402</v>
+      </c>
+      <c r="G2">
+        <v>8.5267508928453903</v>
+      </c>
+      <c r="H2">
+        <v>1914</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2</f>
+        <v>Bm_Ant_A</v>
+      </c>
+      <c r="K2" t="str">
+        <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
+        <v>73.5 ± 6.1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
+        <v>89.6 ± 8.5</v>
+      </c>
+      <c r="M2" t="str">
+        <f>TEXT(D2, "0.00")</f>
+        <v>0.66</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(E2, "0.00")</f>
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>64.655555555555594</v>
+      </c>
+      <c r="C3">
+        <v>93.2202563275834</v>
+      </c>
+      <c r="D3">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="E3">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F3">
+        <v>19.5129212017873</v>
+      </c>
+      <c r="G3">
+        <v>12.290146036012599</v>
+      </c>
+      <c r="H3">
+        <v>518</v>
+      </c>
+      <c r="J3" t="str">
+        <f>A3</f>
+        <v>Bm_Ant_B</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:L6" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
+        <v>64.7 ± 19.5</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>93.2 ± 12.3</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:N7" si="1">TEXT(D3, "0.00")</f>
+        <v>0.54</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>73.476744186046503</v>
+      </c>
+      <c r="C4">
+        <v>95.674673545058795</v>
+      </c>
+      <c r="D4">
+        <v>0.29285714285714298</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>18.679848033448501</v>
+      </c>
+      <c r="G4">
+        <v>0.47721841124917802</v>
+      </c>
+      <c r="H4">
+        <v>179</v>
+      </c>
+      <c r="J4" t="str">
+        <f>A4</f>
+        <v>Bm_Ant_Z</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>73.5 ± 18.7</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>95.7 ± 0.5</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.29</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>1.00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>64.413461538461604</v>
+      </c>
+      <c r="C5">
+        <v>90.721030367124897</v>
+      </c>
+      <c r="D5">
+        <v>0.41428571428571398</v>
+      </c>
+      <c r="E5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F5">
+        <v>18.509402818182199</v>
+      </c>
+      <c r="G5">
+        <v>8.8072928298540099</v>
+      </c>
+      <c r="H5">
+        <v>288</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>A5</f>
+        <v>Bm_D</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>64.4 ± 18.5</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>90.7 ± 8.8</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>81.212765957446805</v>
+      </c>
+      <c r="C6">
+        <v>95.237172774869094</v>
+      </c>
+      <c r="D6">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="E6">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F6">
+        <v>19.894197283606999</v>
+      </c>
+      <c r="G6">
+        <v>12.6526206386264</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>A6</f>
+        <v>Bp</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>81.2 ± 19.9</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>95.2 ± 12.7</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>24488</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C521BB62-5118-4EE4-BB81-0C7545145941}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -992,22 +2253,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73.427947598253297</v>
+        <v>73.362237762237797</v>
       </c>
       <c r="C2">
-        <v>88.413406887328705</v>
+        <v>89.503661743880201</v>
       </c>
       <c r="D2">
         <v>0.65714285714285703</v>
       </c>
       <c r="E2">
-        <v>0.61428571428571399</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="F2">
-        <v>0.71898406296404904</v>
+        <v>10.964544373212499</v>
       </c>
       <c r="G2">
-        <v>2.3349362402710701</v>
+        <v>9.4430085509166197</v>
       </c>
       <c r="H2">
         <v>1914</v>
@@ -1018,11 +2279,11 @@
       </c>
       <c r="K2" t="str">
         <f>TEXT(B2, "0.0") &amp; " ± " &amp; TEXT(F2, "0.0")</f>
-        <v>73.4 ± 0.7</v>
+        <v>73.4 ± 11.0</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(C2, "0.0") &amp; " ± " &amp; TEXT(G2, "0.0")</f>
-        <v>88.4 ± 2.3</v>
+        <v>89.5 ± 9.4</v>
       </c>
       <c r="M2" t="str">
         <f>TEXT(D2, "0.00")</f>
@@ -1030,7 +2291,7 @@
       </c>
       <c r="N2" t="str">
         <f>TEXT(E2, "0.00")</f>
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1038,22 +2299,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.368258859784305</v>
+        <v>66.690909090909102</v>
       </c>
       <c r="C3">
-        <v>93.199765964560299</v>
+        <v>93.027918268258105</v>
       </c>
       <c r="D3">
-        <v>0.65714285714285703</v>
+        <v>0.53571428571428603</v>
       </c>
       <c r="E3">
-        <v>0.871428571428571</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="F3">
-        <v>2.1560089352846199</v>
+        <v>23.394559810327902</v>
       </c>
       <c r="G3">
-        <v>1.92855765198316</v>
+        <v>10.527076349145601</v>
       </c>
       <c r="H3">
         <v>518</v>
@@ -1063,20 +2324,20 @@
         <v>Bm_Ant_B</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:L5" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
-        <v>69.4 ± 2.2</v>
+        <f t="shared" ref="K3:L6" si="0">TEXT(B3, "0.0") &amp; " ± " &amp; TEXT(F3, "0.0")</f>
+        <v>66.7 ± 23.4</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>93.2 ± 1.9</v>
+        <v>93.0 ± 10.5</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:N5" si="1">TEXT(D3, "0.00")</f>
-        <v>0.66</v>
+        <f t="shared" ref="M3:N7" si="1">TEXT(D3, "0.00")</f>
+        <v>0.54</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="1"/>
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1084,22 +2345,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75.062893081761004</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C4">
-        <v>96.975091942494203</v>
+        <v>95.203965203317793</v>
       </c>
       <c r="D4">
         <v>0.05</v>
       </c>
       <c r="E4">
-        <v>0.48571428571428599</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>3.7441197650658999</v>
+        <v>18.3109436523475</v>
       </c>
       <c r="G4">
-        <v>0.37606444718294502</v>
+        <v>0.30173128802047799</v>
       </c>
       <c r="H4">
         <v>179</v>
@@ -1110,11 +2371,11 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>75.1 ± 3.7</v>
+        <v>75.4 ± 18.3</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>97.0 ± 0.4</v>
+        <v>95.2 ± 0.3</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
@@ -1122,7 +2383,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v>0.49</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1130,22 +2391,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66.570743405275806</v>
+        <v>74.188596491228097</v>
       </c>
       <c r="C5">
-        <v>92.015433708692598</v>
+        <v>89.127108388170299</v>
       </c>
       <c r="D5">
-        <v>0.53571428571428603</v>
+        <v>0.05</v>
       </c>
       <c r="E5">
-        <v>0.871428571428571</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="F5">
-        <v>3.5620996887535399</v>
+        <v>15.7009188251659</v>
       </c>
       <c r="G5">
-        <v>2.0215311764720201</v>
+        <v>6.0564540561743403</v>
       </c>
       <c r="H5">
         <v>288</v>
@@ -1156,19 +2417,62 @@
       </c>
       <c r="K5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.6 ± 3.6</v>
+        <v>74.2 ± 15.7</v>
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>92.0 ± 2.0</v>
+        <v>89.1 ± 6.1</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="N5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0.87</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>55.558823529411796</v>
+      </c>
+      <c r="C6">
+        <v>97.329666616609103</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>12.277465502682199</v>
+      </c>
+      <c r="G6">
+        <v>0.20990421850695301</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>A6</f>
+        <v>Bp</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>55.6 ± 12.3</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>97.3 ± 0.2</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1.00</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1178,6 +2482,7 @@
       <c r="B7">
         <v>24488</v>
       </c>
+      <c r="M7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
